--- a/data/experiments.xlsx
+++ b/data/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Measure</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +58,49 @@
   </si>
   <si>
     <t xml:space="preserve">nsDCG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search Outcome (sCG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sDCG (Järvelin et al [18]) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsDCG (Kanoulas et al. [22]) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation with Satisfaction </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算出来不太对，在修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们实验数据上的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Jiepu Jiang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的结果</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +139,18 @@
       <color theme="1"/>
       <name val="Times"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,26 +168,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,103 +565,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>0.65328261442449997</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.33850005300243E-43</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.43961437135749398</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.37173136276201E-34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>-0.43533065055619702</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7677207955781101E-17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.30346582640409397</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.2600937755890897E-17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="6">
+        <v>0.67585975366466799</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.2128772260647201E-47</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.48777439024255198</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.8266065476546702E-42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3">
+        <v>0.49728408768300902</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.4720992935293701E-23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.32970897917326403</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.8884844183550003E-20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="6">
+        <v>0.67585975366466799</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.2128772260647201E-47</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.48777439024255198</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6.8266065476546702E-42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7">
+        <v>-0.24</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7">
+        <v>-0.23</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/experiments.xlsx
+++ b/data/experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Measure</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">Correlation with Satisfaction </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算出来不太对，在修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,8 +180,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,22 +214,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="27">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -229,6 +237,12 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -236,6 +250,12 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,7 +588,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -581,7 +601,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -589,18 +609,18 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -621,13 +641,13 @@
       <c r="B4" s="3">
         <v>0.65328261442449997</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.33850005300243E-43</v>
       </c>
       <c r="D4" s="3">
         <v>0.43961437135749398</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2.37173136276201E-34</v>
       </c>
     </row>
@@ -638,13 +658,13 @@
       <c r="B5" s="3">
         <v>-0.43533065055619702</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1.7677207955781101E-17</v>
       </c>
       <c r="D5" s="3">
         <v>-0.30346582640409397</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.2600937755890897E-17</v>
       </c>
     </row>
@@ -652,16 +672,16 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.67585975366466799</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1.2128772260647201E-47</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.48777439024255198</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>6.8266065476546702E-42</v>
       </c>
     </row>
@@ -672,13 +692,13 @@
       <c r="B7" s="3">
         <v>0.49728408768300902</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4.4720992935293701E-23</v>
       </c>
       <c r="D7" s="3">
         <v>0.32970897917326403</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>4.8884844183550003E-20</v>
       </c>
     </row>
@@ -686,16 +706,16 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.67585975366466799</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1.2128772260647201E-47</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.48777439024255198</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>6.8266065476546702E-42</v>
       </c>
     </row>
@@ -703,12 +723,18 @@
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="B9" s="2">
+        <v>-3.3734956890085301E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.95007333115711001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.84727638126472E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.95904079648475304</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
@@ -726,7 +752,7 @@
     </row>
     <row r="12" spans="1:5" ht="15">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -734,7 +760,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
@@ -743,79 +769,79 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>0.27</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0.22</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>-0.24</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>-0.23</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>0.77</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>0.59</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>0.41</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0.28999999999999998</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>0.77</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>0.59</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>0.75</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>0.56999999999999995</v>
       </c>
       <c r="E19" s="3"/>
